--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,11 +33,17 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -210,9 +216,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[c]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average concentration, cytosol (M)</t>
   </si>
   <si>
@@ -355,9 +367,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -604,7 +613,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 3" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -797,24 +806,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -847,7 +856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -897,7 +906,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +954,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -960,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
@@ -1001,7 +1010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1050,9 +1059,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1067,46 +1076,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1138,12 +1147,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -1155,22 +1164,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1206,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,9 +1282,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1366,11 +1375,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1459,12 +1468,12 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="11" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
   </cols>
@@ -1608,15 +1617,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1627,87 +1636,111 @@
         <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,7 +1784,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1781,7 +1814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1819,7 +1852,7 @@
   </sheetPr>
   <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1829,11 +1862,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="5" width="8.97570850202429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
   </cols>
@@ -1846,19 +1879,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>13</v>
@@ -1873,75 +1906,87 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1949,44 +1994,44 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,16 +34,22 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -126,244 +132,244 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration, cytosol (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration, extracellular (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate law, Vmax and Km ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_1 + specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_5 ==&gt; specie_4 + specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c] ==&gt; specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, cytosol (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, extracellular (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate law, Vmax and Km ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_1 + specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_5 ==&gt; specie_4 + specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c] ==&gt; specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -811,19 +817,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -867,13 +873,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -917,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>13</v>
@@ -954,7 +960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -972,10 +978,10 @@
         <v>103</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
@@ -1024,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1059,9 +1065,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1088,7 +1094,7 @@
         <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>108</v>
@@ -1167,16 +1173,16 @@
         <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>119</v>
@@ -1270,22 +1276,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1308,41 +1315,39 @@
         <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1380,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
@@ -1394,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -1405,10 +1410,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
@@ -1417,15 +1422,15 @@
         <v>1.66058E-010</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
@@ -1434,7 +1439,7 @@
         <v>1.66058E-010</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1468,11 +1473,11 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="11" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
@@ -1489,19 +1494,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>13</v>
@@ -1516,10 +1521,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
@@ -1528,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
@@ -1545,15 +1550,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
@@ -1562,15 +1567,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>1</v>
@@ -1579,15 +1584,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>1</v>
@@ -1596,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1624,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1630,13 +1635,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>13</v>
@@ -1647,100 +1652,100 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1781,10 +1786,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1828,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1863,9 +1868,9 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
@@ -1879,19 +1884,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>13</v>
@@ -1906,36 +1911,36 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -1943,16 +1948,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -1960,16 +1965,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -1977,16 +1982,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1994,44 +1999,44 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,43 +13,50 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -213,6 +220,33 @@
     <t xml:space="preserve">specie_name_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -222,36 +256,15 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Average concentration, cytosol (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average concentration, extracellular (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -364,12 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -804,6 +811,208 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="1:9"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMG1" s="9"/>
+      <c r="AMH1" s="9"/>
+      <c r="AMI1" s="9"/>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H6"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -817,19 +1026,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -849,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -876,10 +1085,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -899,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -923,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>13</v>
@@ -943,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -960,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -978,10 +1187,10 @@
         <v>103</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
@@ -1003,7 +1212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1030,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1047,7 +1256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1065,9 +1274,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1140,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1173,16 +1382,16 @@
         <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>119</v>
@@ -1278,19 +1487,19 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -1380,10 +1589,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
@@ -1473,11 +1682,11 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="11" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
@@ -1622,10 +1831,139 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1635,13 +1973,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>13</v>
@@ -1652,100 +1990,100 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1786,10 +2124,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1806,7 +2144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1833,7 +2171,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1848,206 +2186,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:9"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" activeCellId="0" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMG1" s="9"/>
-      <c r="AMH1" s="9"/>
-      <c r="AMI1" s="9"/>
-      <c r="AMJ1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,44 +19,50 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$D$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Submodels!$A$1:$C$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -118,265 +124,262 @@
     <t xml:space="preserve">Test model for access species populations for </t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration, cytosol (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average concentration, extracellular (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate law, Vmax and Km ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_1 + specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_5 ==&gt; specie_4 + specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c] ==&gt; specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, cytosol (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average concentration, extracellular (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate law, Vmax and Km ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_1 + specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_5 ==&gt; specie_4 + specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c] ==&gt; specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -824,9 +827,9 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="29.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="5" width="9"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="10" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
@@ -834,31 +837,31 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AMG1" s="9"/>
       <c r="AMH1" s="9"/>
@@ -867,36 +870,36 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -904,16 +907,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -921,16 +924,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -938,16 +941,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -955,44 +958,44 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1026,25 +1029,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1066,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1074,27 +1077,21 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>23</v>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1113,10 +1110,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1124,21 +1121,27 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>20</v>
+      <c r="G1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1172,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="5" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1181,22 +1184,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1217,18 +1220,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1236,12 +1239,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1261,23 +1261,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1288,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>104</v>
@@ -1300,10 +1301,10 @@
         <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>108</v>
@@ -1330,14 +1331,12 @@
         <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1367,34 +1366,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1413,10 +1412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1445,12 +1444,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1458,15 +1457,7 @@
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1492,75 +1483,65 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1021" min="4" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:C3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1577,82 +1558,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>1.66058E-010</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>1.66058E-010</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>1.66058E-010</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1676,145 +1650,129 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1020" min="11" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="1020" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMF1" s="9"/>
       <c r="AMG1" s="9"/>
       <c r="AMH1" s="9"/>
       <c r="AMI1" s="9"/>
-      <c r="AMJ1" s="9"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>41</v>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6"/>
+  <autoFilter ref="A1:H6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1833,7 +1791,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1843,8 +1801,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,93 +1813,93 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1973,117 +1931,117 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2102,18 +2060,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2121,15 +2079,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2149,18 +2101,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2168,12 +2120,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$G$9</definedName>
@@ -38,10 +38,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -165,73 +165,94 @@
     <t>submodel_2</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -614,9 +635,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -652,36 +673,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,18 +693,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,6 +739,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -734,7 +785,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,51 +818,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -821,19 +842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,31 +884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,19 +926,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,19 +968,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,67 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,17 +1045,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,40 +1069,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,139 +1113,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,9 +1322,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1311,6 +1329,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1718,7 +1739,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1726,7 +1747,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1734,7 +1755,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1742,7 +1763,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1750,7 +1771,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1758,7 +1779,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1766,7 +1787,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1777,7 +1798,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
@@ -1795,7 +1816,7 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1803,25 +1824,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1867,22 +1888,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1899,16 +1920,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E2" s="10" t="b">
         <v>0</v>
@@ -1916,21 +1937,21 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="K2" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E3" s="10" t="b">
         <v>0</v>
@@ -1940,16 +1961,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E4" s="10" t="b">
         <v>0</v>
@@ -1959,16 +1980,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E5" s="10" t="b">
         <v>0</v>
@@ -1978,16 +1999,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E6" s="10" t="b">
         <v>0</v>
@@ -1997,16 +2018,16 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E7" s="10" t="b">
         <v>0</v>
@@ -2014,16 +2035,16 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E8" s="10" t="b">
         <v>0</v>
@@ -2031,16 +2052,16 @@
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E9" s="10" t="b">
         <v>0</v>
@@ -2087,19 +2108,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2116,163 +2137,163 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2351,13 +2372,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2405,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2463,16 +2484,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2525,16 +2546,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2551,114 +2572,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +2719,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2752,28 +2773,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2826,46 +2847,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2903,7 +2924,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2911,7 +2932,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2919,7 +2940,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2932,7 +2953,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2940,7 +2961,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2973,8 +2994,8 @@
     <col min="2" max="2" width="15.6416666666667" style="5"/>
     <col min="3" max="3" width="10.2833333333333" style="5"/>
     <col min="4" max="1021" width="8.78333333333333" style="5"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="17"/>
-    <col min="1026" max="16384" width="9" style="17"/>
+    <col min="1022" max="1025" width="8.78333333333333" style="16"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1024">
@@ -2999,9 +3020,9 @@
       <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="17"/>
-      <c r="AMI1" s="17"/>
-      <c r="AMJ1" s="17"/>
+      <c r="AMH1" s="16"/>
+      <c r="AMI1" s="16"/>
+      <c r="AMJ1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
@@ -3038,36 +3059,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.175" style="5"/>
-    <col min="2" max="2" width="17.5666666666667" style="5"/>
-    <col min="3" max="3" width="13.2833333333333" style="5"/>
-    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.10833333333333" style="5"/>
-    <col min="6" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="1028" width="8.78333333333333" style="3"/>
-    <col min="1029" max="16384" width="9" style="3"/>
+    <col min="2" max="3" width="17.5666666666667" style="5"/>
+    <col min="4" max="5" width="13.2833333333333" style="5"/>
+    <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.10833333333333" style="5"/>
+    <col min="9" max="1029" width="8.78333333333333" style="5"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1027">
+    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3092,91 +3113,115 @@
         <v>40</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="16">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="15">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>48</v>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3221,19 +3266,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3255,13 +3300,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3270,18 +3315,18 @@
         <v>-2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -3290,18 +3335,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5">
         <v>76</v>
@@ -3310,18 +3355,18 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5">
         <v>28</v>
@@ -3330,18 +3375,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
@@ -3350,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3394,13 +3439,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3417,100 +3462,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3550,19 +3595,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3579,142 +3624,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5">
         <v>1e-12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5">
         <v>2e-12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5">
         <v>3e-12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5">
         <v>4e-12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5">
         <v>5e-12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5">
         <v>6e-12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5">
         <v>7e-12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3754,10 +3799,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3809,10 +3854,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -396,7 +396,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>k_cat_8 * specie_3[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -636,8 +642,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -678,8 +684,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,17 +701,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,10 +716,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,9 +762,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,23 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +791,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,24 +819,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,37 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +902,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -944,7 +950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,19 +998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,31 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,6 +1060,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1065,21 +1082,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,15 +1119,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1134,147 +1127,160 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,7 +1870,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D2:D9"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2349,14 +2355,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2364,7 +2370,7 @@
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2381,15 +2387,21 @@
         <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2432,7 +2444,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2484,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>81</v>
@@ -2549,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
@@ -2572,114 +2584,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>81</v>
@@ -2782,19 +2794,19 @@
         <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2847,46 +2859,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3061,7 +3073,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -177,448 +177,469 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>CHO2P</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>CHO2N2P</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_3[e]</t>
+  </si>
+  <si>
+    <t>specie_4[e]</t>
+  </si>
+  <si>
+    <t>specie_5[e]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Average concentration, cytosol (M)</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>Average concentration, extracellular (M)</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_3[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[e]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>Rate law, Vmax and Km ignored</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_3 ==&gt; specie_1 + specie_2</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[e]: specie_5 ==&gt; specie_4 + specie_3</t>
+  </si>
+  <si>
+    <t>reaction_5</t>
+  </si>
+  <si>
+    <t>reaction_name_5</t>
+  </si>
+  <si>
+    <t>specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t>reaction_6</t>
+  </si>
+  <si>
+    <t>reaction_name_6</t>
+  </si>
+  <si>
+    <t>specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t>reaction_7</t>
+  </si>
+  <si>
+    <t>reaction_name_7</t>
+  </si>
+  <si>
+    <t>specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_8</t>
+  </si>
+  <si>
+    <t>reaction_name_8</t>
+  </si>
+  <si>
+    <t>specie_3[c] ==&gt; specie_3[e]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2 * specie_3[e] * specie_4[e]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3 * specie_3[c]</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4 * specie_5[e]</t>
+  </si>
+  <si>
+    <t>reaction_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_5 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_6-forward</t>
+  </si>
+  <si>
+    <t>k_cat_6 * specie_3[e]</t>
+  </si>
+  <si>
+    <t>reaction_7-forward</t>
+  </si>
+  <si>
+    <t>k_cat_7 * specie_2[e]</t>
+  </si>
+  <si>
+    <t>reaction_8-forward</t>
+  </si>
+  <si>
+    <t>k_cat_8 * specie_3[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>k_cat_1</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-2 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2</t>
+  </si>
+  <si>
+    <t>k_cat_3</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_4</t>
+  </si>
+  <si>
+    <t>k_cat_5</t>
+  </si>
+  <si>
+    <t>k_cat_6</t>
+  </si>
+  <si>
+    <t>k_cat_7</t>
+  </si>
+  <si>
+    <t>k_cat_8</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>CHO2P</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>CHO2N2P</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_3[e]</t>
-  </si>
-  <si>
-    <t>specie_4[e]</t>
-  </si>
-  <si>
-    <t>specie_5[e]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Average concentration, cytosol (M)</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_3[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>Average concentration, extracellular (M)</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_3[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[e]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>Rate law, Vmax and Km ignored</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_3 ==&gt; specie_1 + specie_2</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[e]: specie_5 ==&gt; specie_4 + specie_3</t>
-  </si>
-  <si>
-    <t>reaction_5</t>
-  </si>
-  <si>
-    <t>reaction_name_5</t>
-  </si>
-  <si>
-    <t>specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t>reaction_6</t>
-  </si>
-  <si>
-    <t>reaction_name_6</t>
-  </si>
-  <si>
-    <t>specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t>reaction_7</t>
-  </si>
-  <si>
-    <t>reaction_name_7</t>
-  </si>
-  <si>
-    <t>specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_8</t>
-  </si>
-  <si>
-    <t>reaction_name_8</t>
-  </si>
-  <si>
-    <t>specie_3[c] ==&gt; specie_3[e]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2 * specie_3[e] * specie_4[e]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3 * specie_3[c]</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4 * specie_5[e]</t>
-  </si>
-  <si>
-    <t>reaction_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_5 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_6-forward</t>
-  </si>
-  <si>
-    <t>k_cat_6 * specie_3[e]</t>
-  </si>
-  <si>
-    <t>reaction_7-forward</t>
-  </si>
-  <si>
-    <t>k_cat_7 * specie_2[e]</t>
-  </si>
-  <si>
-    <t>reaction_8-forward</t>
-  </si>
-  <si>
-    <t>k_cat_8 * specie_3[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>k_cat_1</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-2 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2</t>
-  </si>
-  <si>
-    <t>k_cat_3</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_4</t>
-  </si>
-  <si>
-    <t>k_cat_5</t>
-  </si>
-  <si>
-    <t>k_cat_6</t>
-  </si>
-  <si>
-    <t>k_cat_7</t>
-  </si>
-  <si>
-    <t>k_cat_8</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -641,9 +662,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -679,24 +700,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,9 +728,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +737,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,12 +768,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,14 +798,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,13 +835,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -791,37 +842,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +881,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,133 +1043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,18 +1076,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,17 +1129,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,139 +1160,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,6 +1328,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1328,16 +1355,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1740,63 +1761,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="12"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1" max="1025" width="10.6" style="14"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1804,7 +1825,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
@@ -1822,7 +1843,7 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1830,25 +1851,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1883,7 +1904,7 @@
     <col min="9" max="9" width="9.10833333333333" style="5"/>
     <col min="10" max="1020" width="8.78333333333333" style="5"/>
     <col min="1021" max="1025" width="8.78333333333333" style="7"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1026" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:12">
@@ -1894,22 +1915,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1926,150 +1947,150 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="10" t="b">
+        <v>116</v>
+      </c>
+      <c r="E2" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="K2" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="10" t="b">
+        <v>120</v>
+      </c>
+      <c r="E3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="10" t="b">
+        <v>123</v>
+      </c>
+      <c r="E4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="10" t="b">
+        <v>126</v>
+      </c>
+      <c r="E5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="10" t="b">
+      <c r="D6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="10" t="b">
+        <v>132</v>
+      </c>
+      <c r="E7" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="10" t="b">
+        <v>135</v>
+      </c>
+      <c r="E8" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="10" t="b">
+        <v>138</v>
+      </c>
+      <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2114,19 +2135,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2143,163 +2164,163 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2357,7 +2378,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2378,19 +2399,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2438,13 +2459,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2489,34 +2510,34 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2533,14 +2554,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2558,16 +2579,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2584,114 +2605,156 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2731,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2785,28 +2848,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2859,46 +2922,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2931,31 +2994,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="12"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1" max="1025" width="9.10833333333333" style="14"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2965,15 +3028,15 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3006,8 +3069,8 @@
     <col min="2" max="2" width="15.6416666666667" style="5"/>
     <col min="3" max="3" width="10.2833333333333" style="5"/>
     <col min="4" max="1021" width="8.78333333333333" style="5"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="16"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1022" max="1025" width="8.78333333333333" style="17"/>
+    <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1024">
@@ -3032,9 +3095,9 @@
       <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="16"/>
-      <c r="AMI1" s="16"/>
-      <c r="AMJ1" s="16"/>
+      <c r="AMH1" s="17"/>
+      <c r="AMI1" s="17"/>
+      <c r="AMJ1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
@@ -3071,14 +3134,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3088,13 +3151,13 @@
     <col min="4" max="5" width="13.2833333333333" style="5"/>
     <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.10833333333333" style="5"/>
-    <col min="9" max="1029" width="8.78333333333333" style="5"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
-    <col min="1032" max="16384" width="9" style="3"/>
+    <col min="9" max="1028" width="8.78333333333333" style="5"/>
+    <col min="1029" max="1030" width="8.78333333333333" style="3"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1029">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3131,87 +3194,81 @@
         <v>42</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="I2" s="9">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -3220,16 +3277,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +3319,7 @@
     <col min="8" max="8" width="23.35" style="5"/>
     <col min="9" max="9" width="9.10833333333333" style="5"/>
     <col min="10" max="1019" width="8.78333333333333" style="5"/>
-    <col min="1020" max="1023" width="8.78333333333333" style="13"/>
+    <col min="1020" max="1023" width="8.78333333333333" style="15"/>
     <col min="1024" max="1025" width="8.78333333333333" style="3"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
@@ -3278,19 +3332,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3304,21 +3358,21 @@
       <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMF1" s="13"/>
-      <c r="AMG1" s="13"/>
-      <c r="AMH1" s="13"/>
-      <c r="AMI1" s="13"/>
+      <c r="AMF1" s="15"/>
+      <c r="AMG1" s="15"/>
+      <c r="AMH1" s="15"/>
+      <c r="AMI1" s="15"/>
       <c r="AMJ1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3327,18 +3381,18 @@
         <v>-2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -3347,18 +3401,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="5">
         <v>76</v>
@@ -3367,18 +3421,18 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="5">
         <v>28</v>
@@ -3387,18 +3441,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
@@ -3407,11 +3461,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
-      <c r="H13" s="9"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H6">
@@ -3438,9 +3492,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="12"/>
-    <col min="7" max="1025" width="9.10833333333333" style="12"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1" max="6" width="15.5333333333333" style="14"/>
+    <col min="7" max="1025" width="9.10833333333333" style="14"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -3451,13 +3505,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3473,101 +3527,101 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="C6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>83</v>
+      <c r="C8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3650,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -3607,19 +3661,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3636,142 +3690,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5">
         <v>1e-12</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5">
         <v>2e-12</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5">
         <v>3e-12</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <v>4e-12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5">
         <v>5e-12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5">
         <v>6e-12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5">
         <v>7e-12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3811,10 +3865,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3842,19 +3896,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
+    <col min="1" max="2" width="9.10833333333333" style="5"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="5"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3866,10 +3922,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3882,6 +3938,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$H$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$G$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
@@ -46,10 +46,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -399,6 +399,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -417,6 +420,9 @@
     <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>Rate law, Vmax and Km ignored</t>
   </si>
   <si>
@@ -499,9 +505,6 @@
   </si>
   <si>
     <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -662,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -708,16 +711,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -730,6 +734,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,16 +769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,25 +791,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +806,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,21 +837,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +896,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +932,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,19 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,49 +986,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,19 +1010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,49 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,11 +1075,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,35 +1146,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,138 +1163,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,14 +1887,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1899,15 +1902,15 @@
     <col min="1" max="1" width="9.125" style="5" customWidth="1"/>
     <col min="2" max="3" width="9.10833333333333" style="5"/>
     <col min="4" max="4" width="32.25" style="5" customWidth="1"/>
-    <col min="5" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="29.35" style="5"/>
-    <col min="9" max="9" width="9.10833333333333" style="5"/>
-    <col min="10" max="1020" width="8.78333333333333" style="5"/>
-    <col min="1021" max="1025" width="8.78333333333333" style="7"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="5" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="29.35" style="5"/>
+    <col min="10" max="10" width="9.10833333333333" style="5"/>
+    <col min="11" max="1021" width="8.78333333333333" style="5"/>
+    <col min="1022" max="1026" width="8.78333333333333" style="7"/>
+    <col min="1027" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1933,169 +1936,196 @@
         <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:11">
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G2" s="12"/>
-      <c r="K2" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+      <c r="H2" s="12"/>
+      <c r="L2" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G5" s="12"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="G6" s="11"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
+      <c r="F7" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E8" s="12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
+      <c r="F8" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9">
+  <autoFilter ref="A1:I9">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2135,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>61</v>
@@ -2164,163 +2194,163 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2408,10 +2438,10 @@
         <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2465,7 +2495,7 @@
         <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2517,13 +2547,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>80</v>
@@ -2582,10 +2612,10 @@
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>80</v>
@@ -2605,114 +2635,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2720,13 +2750,13 @@
         <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2734,31 +2764,31 @@
         <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9">
+  <autoFilter ref="A1:G12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2848,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>80</v>
@@ -2857,19 +2887,19 @@
         <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2922,46 +2952,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3898,7 +3928,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,66 +5,67 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Submodels!$A$1:$C$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$H$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$H$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -132,7 +133,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test_2016_ss_taxon</t>
+    <t>taxon</t>
   </si>
   <si>
     <t xml:space="preserve">Test model for access species populations for </t>
@@ -150,6 +151,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -616,9 +632,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -665,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -703,9 +716,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,15 +730,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -729,13 +771,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,14 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,32 +811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,16 +848,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,13 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,19 +921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,19 +951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +987,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,96 +1066,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,17 +1088,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,21 +1136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1164,151 +1156,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1360,6 +1373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1769,7 +1785,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1777,7 +1793,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1785,7 +1801,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1793,7 +1809,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1801,7 +1817,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1809,7 +1825,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -1817,7 +1833,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1834,13 +1850,13 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
@@ -1887,9 +1903,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.10833333333333" style="5"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1918,31 +2013,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1953,175 +2048,175 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="L2" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E8" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K18"/>
@@ -2165,25 +2260,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2194,163 +2289,163 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2403,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -2429,25 +2524,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2462,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2489,19 +2584,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2520,7 +2615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2547,22 +2642,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2581,7 +2676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J12"/>
@@ -2609,22 +2704,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2635,156 +2730,156 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2824,16 +2919,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2852,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2878,34 +2973,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -2920,7 +3015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2952,46 +3047,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3019,7 +3114,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="J7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3029,7 +3124,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -3037,7 +3132,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3045,7 +3140,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3058,7 +3153,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -3066,7 +3161,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3081,6 +3176,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="5"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
+    <col min="1020" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3111,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3131,24 +3304,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
@@ -3194,40 +3367,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3239,28 +3412,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9">
         <v>4.58e-17</v>
@@ -3269,36 +3442,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -3307,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ13"/>
@@ -3362,25 +3535,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3396,13 +3569,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3411,18 +3584,18 @@
         <v>-2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -3431,18 +3604,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
         <v>76</v>
@@ -3451,18 +3624,18 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5">
         <v>28</v>
@@ -3471,18 +3644,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
@@ -3491,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3507,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I8"/>
@@ -3535,19 +3708,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3558,100 +3731,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3691,25 +3864,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3720,142 +3893,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5">
         <v>1e-12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
         <v>2e-12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5">
         <v>3e-12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5">
         <v>4e-12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>5e-12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5">
         <v>6e-12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5">
         <v>7e-12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +4041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3895,101 +4068,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.10833333333333" style="5"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -574,7 +574,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -680,8 +680,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -721,6 +721,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -736,16 +775,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,36 +822,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -798,7 +844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,53 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +885,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,49 +1035,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,121 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,15 +1085,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1121,17 +1112,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,11 +1132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,153 +1162,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2620,12 +2620,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3180,7 +3180,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Algorithm</t>
@@ -678,10 +684,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -722,33 +728,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,7 +751,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -776,7 +759,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,16 +809,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +840,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,35 +848,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +891,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,13 +987,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,49 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,103 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1103,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1112,11 +1127,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,21 +1158,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,162 +1177,153 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1929,16 +1935,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1949,24 +1955,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2013,31 +2019,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2048,175 +2054,175 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="L2" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2260,25 +2266,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2289,163 +2295,163 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2524,25 +2530,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2584,19 +2590,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2620,7 +2626,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2642,22 +2648,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2704,22 +2710,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2730,156 +2736,156 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2919,16 +2925,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2973,34 +2979,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -3047,46 +3053,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3178,15 +3184,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
@@ -3232,18 +3238,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3284,13 +3298,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3304,24 +3318,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3367,40 +3381,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3412,28 +3426,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9">
         <v>4.58e-17</v>
@@ -3442,36 +3456,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -3480,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3535,25 +3549,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3569,13 +3583,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3584,18 +3598,18 @@
         <v>-2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -3604,18 +3618,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5">
         <v>76</v>
@@ -3624,18 +3638,18 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5">
         <v>28</v>
@@ -3644,18 +3658,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
@@ -3664,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
@@ -3708,19 +3722,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3731,100 +3745,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3864,25 +3878,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3893,142 +3907,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>1e-12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <v>2e-12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5">
         <v>3e-12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5">
         <v>4e-12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5">
         <v>5e-12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5">
         <v>6e-12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5">
         <v>7e-12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4068,16 +4082,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$C$3</definedName>
@@ -34,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$C$3</definedName>
@@ -55,17 +56,17 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -178,6 +179,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -637,10 +641,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -684,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -722,17 +741,39 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -758,34 +799,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -793,9 +807,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,28 +825,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,7 +839,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +868,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,14 +886,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -891,7 +910,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +958,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,109 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1024,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,31 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,11 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,7 +1132,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,6 +1148,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,11 +1189,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,158 +1210,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1345,6 +1364,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1786,63 +1808,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="14"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="1025" width="10.6" style="15"/>
+    <col min="1026" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1850,25 +1872,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1876,25 +1898,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1909,25 +1931,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9.10833333333333" style="5"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="4" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1935,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1947,32 +1969,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1988,14 +2013,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F9"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2006,12 +2031,12 @@
     <col min="5" max="8" width="9" style="5"/>
     <col min="9" max="9" width="29.35" style="5"/>
     <col min="10" max="10" width="9.10833333333333" style="5"/>
-    <col min="11" max="1021" width="8.78333333333333" style="5"/>
-    <col min="1022" max="1026" width="8.78333333333333" style="7"/>
-    <col min="1027" max="16384" width="9" style="12"/>
+    <col min="11" max="1022" width="8.78333333333333" style="5"/>
+    <col min="1023" max="1027" width="8.78333333333333" style="8"/>
+    <col min="1028" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2019,25 +2044,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2046,183 +2071,186 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12" t="b">
+        <v>125</v>
+      </c>
+      <c r="E2" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="L2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>126</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="M2" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="12" t="b">
+        <v>130</v>
+      </c>
+      <c r="E3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="12" t="b">
+        <v>133</v>
+      </c>
+      <c r="E4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="12" t="b">
+        <v>136</v>
+      </c>
+      <c r="E5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="b">
+        <v>38</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="12" t="b">
+        <v>142</v>
+      </c>
+      <c r="E7" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>125</v>
+      <c r="F7" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="12" t="b">
+        <v>145</v>
+      </c>
+      <c r="E8" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>125</v>
+      <c r="F8" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="12" t="b">
+        <v>148</v>
+      </c>
+      <c r="E9" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>125</v>
+      <c r="F9" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2238,14 +2266,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2254,11 +2282,11 @@
     <col min="6" max="6" width="29.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.10833333333333" style="5"/>
     <col min="8" max="8" width="32.25" style="5" customWidth="1"/>
-    <col min="9" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="9" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2266,19 +2294,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2287,171 +2315,174 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="6:8">
@@ -2507,14 +2538,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2522,7 +2553,7 @@
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2530,19 +2561,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2551,9 +2582,12 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2566,23 +2600,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2590,13 +2624,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2605,9 +2639,12 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2624,51 +2661,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2685,24 +2725,24 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="13.2833333333333" style="5"/>
-    <col min="9" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="9" width="13.2833333333333" style="5"/>
+    <col min="10" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2710,16 +2750,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2728,164 +2768,167 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>152</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="9">
+        <v>153</v>
+      </c>
+      <c r="D12" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2901,23 +2944,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2925,10 +2968,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2937,9 +2980,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2956,14 +3002,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2971,7 +3017,7 @@
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2979,16 +3025,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>189</v>
@@ -2997,21 +3043,45 @@
         <v>190</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3022,6 +3092,173 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="5"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J7" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="9.10833333333333" style="15"/>
+    <col min="1026" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -3053,46 +3290,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3112,84 +3349,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="14"/>
-    <col min="1026" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3197,8 +3365,8 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="5"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
-    <col min="1020" max="16384" width="9" style="18"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="19"/>
+    <col min="1020" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3270,14 +3438,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3285,12 +3453,12 @@
     <col min="1" max="1" width="14.8916666666667" style="5"/>
     <col min="2" max="2" width="15.6416666666667" style="5"/>
     <col min="3" max="3" width="10.2833333333333" style="5"/>
-    <col min="4" max="1021" width="8.78333333333333" style="5"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="17"/>
-    <col min="1026" max="16384" width="9" style="17"/>
+    <col min="4" max="1022" width="8.78333333333333" style="5"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="18"/>
+    <col min="1027" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3307,35 +3475,38 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="17"/>
-      <c r="AMI1" s="17"/>
-      <c r="AMJ1" s="17"/>
+      <c r="AMI1" s="18"/>
+      <c r="AMJ1" s="18"/>
+      <c r="AMK1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3351,14 +3522,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3368,47 +3539,47 @@
     <col min="4" max="5" width="13.2833333333333" style="5"/>
     <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.10833333333333" style="5"/>
-    <col min="9" max="1028" width="8.78333333333333" style="5"/>
-    <col min="1029" max="1030" width="8.78333333333333" style="3"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="9" max="1029" width="8.78333333333333" style="5"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3417,75 +3588,78 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
+      <c r="AMP1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="9">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -3494,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3516,14 +3690,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3534,14 +3708,14 @@
     <col min="6" max="6" width="10.2833333333333" style="5"/>
     <col min="7" max="7" width="9.425" style="5"/>
     <col min="8" max="8" width="23.35" style="5"/>
-    <col min="9" max="9" width="9.10833333333333" style="5"/>
-    <col min="10" max="1019" width="8.78333333333333" style="5"/>
-    <col min="1020" max="1023" width="8.78333333333333" style="15"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="9" max="10" width="9.10833333333333" style="5"/>
+    <col min="11" max="1020" width="8.78333333333333" style="5"/>
+    <col min="1021" max="1024" width="8.78333333333333" style="16"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3549,19 +3723,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3570,26 +3744,29 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMF1" s="15"/>
-      <c r="AMG1" s="15"/>
-      <c r="AMH1" s="15"/>
-      <c r="AMI1" s="15"/>
-      <c r="AMJ1" s="3"/>
+      <c r="AMG1" s="16"/>
+      <c r="AMH1" s="16"/>
+      <c r="AMI1" s="16"/>
+      <c r="AMJ1" s="16"/>
+      <c r="AMK1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3598,18 +3775,18 @@
         <v>-2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -3618,18 +3795,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5">
         <v>76</v>
@@ -3638,18 +3815,18 @@
         <v>-1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5">
         <v>28</v>
@@ -3658,18 +3835,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5">
         <v>120</v>
@@ -3678,11 +3855,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="8:8">
-      <c r="H13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H6">
@@ -3697,24 +3874,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="14"/>
-    <col min="7" max="1025" width="9.10833333333333" style="14"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="6" width="15.5333333333333" style="15"/>
+    <col min="7" max="1026" width="9.10833333333333" style="15"/>
+    <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3722,13 +3899,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3737,108 +3914,111 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>89</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>89</v>
+      <c r="A4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>89</v>
+      <c r="A5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>89</v>
+      <c r="A6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>89</v>
+      <c r="A7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>89</v>
+      <c r="A8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3854,23 +4034,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="1" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3878,19 +4058,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3899,150 +4079,153 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>1e-12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5">
         <v>2e-12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5">
         <v>3e-12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
+      <c r="K4" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5">
         <v>4e-12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5">
         <v>5e-12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5">
         <v>6e-12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>7e-12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4058,23 +4241,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37:K38"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4082,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4093,10 +4276,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="209">
   <si>
     <t>Id</t>
   </si>
@@ -173,7 +173,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -185,7 +185,7 @@
     <t>submodel_1</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>submodel_2</t>
@@ -227,13 +227,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -242,7 +242,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -257,7 +257,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
@@ -703,10 +700,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -741,24 +738,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,9 +757,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -784,10 +773,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,22 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,25 +805,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,9 +833,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,8 +865,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -910,7 +907,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,25 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,31 +1063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,97 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,16 +1110,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1130,8 +1136,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1154,11 +1162,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,172 +1207,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2273,7 +2270,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2334,11 +2331,9 @@
       <c r="D2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>126</v>
@@ -2346,7 +2341,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>128</v>
@@ -2354,11 +2349,9 @@
       <c r="D3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>126</v>
@@ -2366,7 +2359,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -2374,11 +2367,9 @@
       <c r="D4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>126</v>
@@ -2386,7 +2377,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>134</v>
@@ -2394,11 +2385,9 @@
       <c r="D5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>126</v>
@@ -2406,7 +2395,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>137</v>
@@ -2414,11 +2403,9 @@
       <c r="D6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>126</v>
@@ -2427,7 +2414,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>140</v>
@@ -2435,11 +2422,9 @@
       <c r="D7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>126</v>
@@ -2447,7 +2432,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>143</v>
@@ -2455,11 +2440,9 @@
       <c r="D8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>126</v>
@@ -2467,7 +2450,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>146</v>
@@ -2475,11 +2458,9 @@
       <c r="D9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>126</v>
@@ -2570,10 +2551,10 @@
         <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2630,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2685,13 +2666,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>97</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>88</v>
@@ -2727,12 +2708,12 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2753,10 +2734,10 @@
         <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>88</v>
@@ -2779,156 +2760,149 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="5">
         <v>1100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D12" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2920,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3025,10 +2999,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>88</v>
@@ -3037,10 +3011,10 @@
         <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>29</v>
@@ -3055,22 +3029,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
@@ -3120,10 +3094,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>88</v>
@@ -3132,7 +3106,7 @@
         <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>18</v>
@@ -3290,46 +3264,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3445,7 +3419,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3529,7 +3503,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -4041,7 +4015,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -700,10 +700,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -738,9 +738,40 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -757,9 +788,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,15 +827,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -791,43 +836,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,39 +850,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,6 +868,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -907,7 +907,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,61 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +979,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,49 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,37 +1069,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,21 +1119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1160,20 +1145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,6 +1175,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1207,139 +1198,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2331,7 +2331,6 @@
       <c r="D2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>153</v>
       </c>
@@ -2349,7 +2348,6 @@
       <c r="D3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>155</v>
       </c>
@@ -2367,7 +2365,6 @@
       <c r="D4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>157</v>
       </c>
@@ -2385,7 +2382,6 @@
       <c r="D5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>159</v>
       </c>
@@ -2403,7 +2399,6 @@
       <c r="D6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>161</v>
       </c>
@@ -2422,7 +2417,6 @@
       <c r="D7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>163</v>
       </c>
@@ -2440,7 +2434,6 @@
       <c r="D8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>165</v>
       </c>
@@ -2458,7 +2451,6 @@
       <c r="D9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>167</v>
       </c>
@@ -2708,7 +2700,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3328,10 +3320,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations_steady_state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -652,6 +652,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -718,6 +721,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -731,9 +737,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -744,10 +747,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -782,9 +785,69 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -795,21 +858,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -826,60 +875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,30 +889,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,6 +921,13 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -951,19 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,19 +984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,37 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,25 +1056,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,25 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,13 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,6 +1157,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1169,17 +1205,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,188 +1234,159 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3083,14 +3086,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3101,7 +3104,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3134,6 +3137,9 @@
       </c>
       <c r="K1" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3279,46 +3285,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3364,31 +3370,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3406,14 +3412,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3421,7 +3427,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3432,43 +3438,46 @@
         <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
